--- a/biology/Botanique/Orchis_mâle/Orchis_mâle.xlsx
+++ b/biology/Botanique/Orchis_mâle/Orchis_mâle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Orchis_m%C3%A2le</t>
+          <t>Orchis_mâle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Orchis mascula · Satyrion mâle, Herbe à la couleuvre
 L'Orchis mâle (Orchis mascula), encore appelé Satyrion mâle ou Herbe à la couleuvre, Orchis tachetée, Patte de loup, Mâle fou, est une espèce d'orchidées terrestres européenne.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Orchis_m%C3%A2le</t>
+          <t>Orchis_mâle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,85 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'Orchis mâle est d'abord considéré par Carl von Linné en 1753 comme une variété d’Orchis morio, sous le nom Orchis morio var. mascula (basionyme). Deux ans plus tard, Linné révise sa classification et l'élève au rang d'espèce, sous le nom binominal Orchis mascula. En 2008, D. Tyteca &amp; E. Klein déplacent l'espèce dans le genre Androrchis. Cependant, le nom correct est Orchis mascula[1],[2].
-Synonymes
-Androrchis mascula (L.) D.Tyteca &amp; E.Klein, 2008[1],[2]
-Orchis morio var. mascula L., 1753[1],[2]
-Sous-espèces
-Selon Plants of the World online (POWO)                (9 février 2021)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Orchis mâle est d'abord considéré par Carl von Linné en 1753 comme une variété d’Orchis morio, sous le nom Orchis morio var. mascula (basionyme). Deux ans plus tard, Linné révise sa classification et l'élève au rang d'espèce, sous le nom binominal Orchis mascula. En 2008, D. Tyteca &amp; E. Klein déplacent l'espèce dans le genre Androrchis. Cependant, le nom correct est Orchis mascula,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Orchis_mâle</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orchis_m%C3%A2le</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Androrchis mascula (L.) D.Tyteca &amp; E.Klein, 2008,
+Orchis morio var. mascula L., 1753,</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orchis_mâle</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orchis_m%C3%A2le</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Plants of the World online (POWO)                (9 février 2021) :
 Orchis mascula subsp. ichnusae Corrias
 Orchis mascula subsp. laxifloriformis Rivas Goday &amp; B.Rodr. - l'Orchis de Lange
 Orchis mascula subsp. mascula
@@ -528,75 +611,13 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Orchis_m%C3%A2le</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Orchis_m%C3%A2le</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les feuilles basales en rosette, sont oblongues et étroites, souvent tachées de brun-pourpre. L'inflorescence est un épi allongé de fleurs pourpres, parfois roses. Les fleurs apparaissent à l'aisselle de bractées aussi longues que l'ovaire. Les sépales latéraux sont écartés vers l'extérieur alors que le sépale supérieur et les deux pétales latéraux sont ramenés en casque au-dessus du labelle trilobé, formant grossièrement un losange, au centre plus clair et tacheté. L'éperon est dressé et aussi long que l'ovaire.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Orchis_m%C3%A2le</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Orchis_m%C3%A2le</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Floraison</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Espèce précoce : avril-juillet suivant l'altitude. La plante est inodore ou peut émettre une odeur agréable[3] ou d'urine de chat selon certains[4].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Orchis_m%C3%A2le</t>
+          <t>Orchis_mâle</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,12 +632,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Habitat</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante de pleine lumière à mi-ombre : bordure des haies, broussailles, lisières, bois clairs.
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles basales en rosette, sont oblongues et étroites, souvent tachées de brun-pourpre. L'inflorescence est un épi allongé de fleurs pourpres, parfois roses. Les fleurs apparaissent à l'aisselle de bractées aussi longues que l'ovaire. Les sépales latéraux sont écartés vers l'extérieur alors que le sépale supérieur et les deux pétales latéraux sont ramenés en casque au-dessus du labelle trilobé, formant grossièrement un losange, au centre plus clair et tacheté. L'éperon est dressé et aussi long que l'ovaire.
 </t>
         </is>
       </c>
@@ -627,7 +650,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Orchis_m%C3%A2le</t>
+          <t>Orchis_mâle</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,12 +665,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Répartition</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante commune dans toute l'Europe sauf en bordure méditerranéenne.
+          <t>Floraison</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espèce précoce : avril-juillet suivant l'altitude. La plante est inodore ou peut émettre une odeur agréable ou d'urine de chat selon certains.
 </t>
         </is>
       </c>
@@ -658,7 +683,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Orchis_m%C3%A2le</t>
+          <t>Orchis_mâle</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -673,12 +698,80 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante de pleine lumière à mi-ombre : bordure des haies, broussailles, lisières, bois clairs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Orchis_mâle</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orchis_m%C3%A2le</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante commune dans toute l'Europe sauf en bordure méditerranéenne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Orchis_mâle</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orchis_m%C3%A2le</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Statut</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France métropolitaine, l'espèce est classée « préoccupation mineure » (LC)[5] mais elle fait l'objet de réglementations au niveau européen et de protections locales. Elle est en effet considérée comme « en danger » (EN) en Haute-Normandie et Picardie, et « espèce vulnérable » en Nord-Pas-de-Calais[1].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France métropolitaine, l'espèce est classée « préoccupation mineure » (LC) mais elle fait l'objet de réglementations au niveau européen et de protections locales. Elle est en effet considérée comme « en danger » (EN) en Haute-Normandie et Picardie, et « espèce vulnérable » en Nord-Pas-de-Calais.
 </t>
         </is>
       </c>
